--- a/spark_connected_component_stage_hit_info-shuffle.xlsx
+++ b/spark_connected_component_stage_hit_info-shuffle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16128" windowHeight="9120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16128" windowHeight="7692"/>
   </bookViews>
   <sheets>
     <sheet name="spark_connected_component_stage" sheetId="1" r:id="rId1"/>
@@ -653,8 +653,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="19">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="23">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" xfId="33">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" xfId="37">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,34 +714,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1036,7 +1021,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:M15"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1356,40 +1341,40 @@
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1400,40 +1385,40 @@
       <c r="B9">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1444,40 +1429,40 @@
       <c r="B10">
         <v>12</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1488,40 +1473,40 @@
       <c r="B11">
         <v>13</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1532,40 +1517,40 @@
       <c r="B12">
         <v>21</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1576,40 +1561,40 @@
       <c r="B13">
         <v>22</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1620,40 +1605,40 @@
       <c r="B14">
         <v>23</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1664,40 +1649,40 @@
       <c r="B15">
         <v>24</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1708,40 +1693,40 @@
       <c r="B16">
         <v>35</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1752,40 +1737,40 @@
       <c r="B17">
         <v>36</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1796,40 +1781,40 @@
       <c r="B18">
         <v>37</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1840,40 +1825,40 @@
       <c r="B19">
         <v>38</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1884,40 +1869,40 @@
       <c r="B20">
         <v>49</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
+      <c r="N20" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2214,7 +2199,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C2:N29">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
